--- a/medicine/Enfance/La_Fugue_du_Petit_Poucet/La_Fugue_du_Petit_Poucet.xlsx
+++ b/medicine/Enfance/La_Fugue_du_Petit_Poucet/La_Fugue_du_Petit_Poucet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fugue du Petit Poucet est un conte pour enfants écrit en 1979 par l'auteur français Michel Tournier.
@@ -513,7 +525,9 @@
           <t>Artistes présents sur la version française</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richard Gotainer
 Fabienne Thibeault
@@ -553,7 +567,9 @@
           <t>Artistes présents sur la version québécoise</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Frédéric Broissoit
 Marie Eykel
@@ -592,7 +608,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Portail des contes et fables   Portail de la littérature française   Portail de la musique   Portail de la littérature d’enfance et de jeunesse                  </t>
         </is>
